--- a/InputData/ccs/CSA/Carbon Sequestration Amounts.xlsx
+++ b/InputData/ccs/CSA/Carbon Sequestration Amounts.xlsx
@@ -622,10 +622,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.375" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,10 +798,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,18 +1134,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1197,8 +1197,68 @@
       <c r="Q1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1326,86 @@
         <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
         <v>2815000</v>
       </c>
-      <c r="R2" s="8"/>
+      <c r="R2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="S2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="T2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="U2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="V2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="W2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="X2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="Y2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AA2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AB2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AC2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AD2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AE2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AH2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AI2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AJ2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
+      <c r="AK2" s="8">
+        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
+        <v>2815000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1278,17 +1417,17 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="17" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="2" max="17" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1340,8 +1479,68 @@
       <c r="Q1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1593,7 @@
         <v>94000000</v>
       </c>
       <c r="N2" s="8">
-        <f t="shared" ref="N2:P2" si="2">($Q$2-$L$2)/COUNT($M$1:$Q$1)+M2</f>
+        <f t="shared" ref="N2:R2" si="2">($Q$2-$L$2)/COUNT($M$1:$Q$1)+M2</f>
         <v>118000000</v>
       </c>
       <c r="O2" s="8">
@@ -1408,6 +1607,86 @@
       <c r="Q2" s="8">
         <f>'ETP data'!H4*10^9</f>
         <v>190000000</v>
+      </c>
+      <c r="R2" s="8">
+        <f>($V$2-$Q$2)/COUNT($R$1:$V$1)+Q2</f>
+        <v>234000000</v>
+      </c>
+      <c r="S2" s="8">
+        <f t="shared" ref="S2:U2" si="3">($V$2-$Q$2)/COUNT($R$1:$V$1)+R2</f>
+        <v>278000000</v>
+      </c>
+      <c r="T2" s="8">
+        <f t="shared" si="3"/>
+        <v>322000000</v>
+      </c>
+      <c r="U2" s="8">
+        <f t="shared" si="3"/>
+        <v>366000000</v>
+      </c>
+      <c r="V2" s="8">
+        <f>'ETP data'!I4*10^9</f>
+        <v>410000000</v>
+      </c>
+      <c r="W2" s="8">
+        <f>($AA$2-$V$2)/COUNT($W$1:$AA$1)+V2</f>
+        <v>452000000</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" ref="X2:Z2" si="4">($AA$2-$V$2)/COUNT($W$1:$AA$1)+W2</f>
+        <v>494000000</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" si="4"/>
+        <v>536000000</v>
+      </c>
+      <c r="Z2" s="8">
+        <f t="shared" si="4"/>
+        <v>578000000</v>
+      </c>
+      <c r="AA2" s="8">
+        <f>'ETP data'!J4*10^9</f>
+        <v>620000000</v>
+      </c>
+      <c r="AB2" s="8">
+        <f>($AF$2-$AA$2)/COUNT($AB$1:$AF$1)+AA2</f>
+        <v>650000000</v>
+      </c>
+      <c r="AC2" s="8">
+        <f t="shared" ref="AC2:AE2" si="5">($AF$2-$AA$2)/COUNT($AB$1:$AF$1)+AB2</f>
+        <v>680000000</v>
+      </c>
+      <c r="AD2" s="8">
+        <f t="shared" si="5"/>
+        <v>710000000</v>
+      </c>
+      <c r="AE2" s="8">
+        <f t="shared" si="5"/>
+        <v>740000000</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>'ETP data'!K4*10^9</f>
+        <v>770000000</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>($AK$2-$AF$2)/COUNT($AG$1:$AK$1)+AF2</f>
+        <v>786000000</v>
+      </c>
+      <c r="AH2" s="8">
+        <f t="shared" ref="AH2:AJ2" si="6">($AK$2-$AF$2)/COUNT($AG$1:$AK$1)+AG2</f>
+        <v>802000000</v>
+      </c>
+      <c r="AI2" s="8">
+        <f t="shared" si="6"/>
+        <v>818000000</v>
+      </c>
+      <c r="AJ2" s="8">
+        <f t="shared" si="6"/>
+        <v>834000000</v>
+      </c>
+      <c r="AK2" s="8">
+        <f>'ETP data'!L4*10^9</f>
+        <v>850000000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/ccs/CSA/Carbon Sequestration Amounts.xlsx
+++ b/InputData/ccs/CSA/Carbon Sequestration Amounts.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\ccs\CSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="20115" windowHeight="12075"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="18840" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ETP data" sheetId="7" r:id="rId2"/>
-    <sheet name="MIT Data" sheetId="9" r:id="rId3"/>
+    <sheet name="MIT Data" sheetId="11" r:id="rId3"/>
     <sheet name="CSA-BTCS" sheetId="5" r:id="rId4"/>
-    <sheet name="CSA-ACP" sheetId="6" r:id="rId5"/>
+    <sheet name="CSA-ACP" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>International Energy Agency</t>
   </si>
@@ -32,15 +37,9 @@
     <t>IEA has three CCS scenarios, corresponding to packages of actions (not all CCS) leading to different levels of warming.</t>
   </si>
   <si>
-    <t>We use the 6ds (six-degree scenario) as our BAU case, as it represents no policies beyond those in place today.</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
-    <t>BAU CO2 Stored (tons/yr)</t>
-  </si>
-  <si>
     <t>CSA BAU Tons CO2 Sequestered</t>
   </si>
   <si>
@@ -50,63 +49,21 @@
     <t>Notes on BAU Tons CO2 Sequestered:</t>
   </si>
   <si>
-    <t>Notes on Additional CCS Potential:</t>
-  </si>
-  <si>
-    <t>We use the amount of carbon sequestration under the IEA's two-degree scenario as the potential.</t>
-  </si>
-  <si>
-    <t>Additional Potential CO2 Stored (tons/yr)</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
     <t>Bottom Scenario ID</t>
   </si>
   <si>
-    <t>Top Scenario ID</t>
-  </si>
-  <si>
     <t>Carbon capture and storage</t>
   </si>
   <si>
-    <t>2DS</t>
-  </si>
-  <si>
-    <t>4DS</t>
-  </si>
-  <si>
-    <t>6DS</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
-    <t>Energy Technology Perspectives : ETP 2015 Data Visualization</t>
-  </si>
-  <si>
-    <t>http://www.iea.org/etp/explore/</t>
-  </si>
-  <si>
-    <t>We linearly interpolate for years we don't know explicitly.</t>
-  </si>
-  <si>
-    <t>Emissions Reductions tab, "Download data files" button, in Excel "EmissionsTech web" tab, US, CCS</t>
-  </si>
-  <si>
-    <t>The IEA does not specify how much carbon is sequestered in the BAU scenario, but it seems to be close to zero</t>
-  </si>
-  <si>
     <t>Additional CCS Potential</t>
   </si>
   <si>
-    <t>(given the extremely small potential increase between the 6ds and the 4ds).  We take growth in the BAU case to</t>
-  </si>
-  <si>
-    <t>BAU CCS Amounts</t>
-  </si>
-  <si>
     <t>Database accessed 3/3/2016</t>
   </si>
   <si>
@@ -170,26 +127,50 @@
     <t>IL-CCS</t>
   </si>
   <si>
-    <t>However, we estimate a BAU value (needed in part to serve as a baseline from which to calculate costs via the</t>
-  </si>
-  <si>
-    <t>United States maintained by MIT.</t>
-  </si>
-  <si>
-    <t>be zero.</t>
-  </si>
-  <si>
-    <t>endogenous, capacity-based learning curve) using a database of operating CCS projects in the</t>
+    <t>Reference Technology Scenario</t>
+  </si>
+  <si>
+    <t>Beyond 2DS</t>
+  </si>
+  <si>
+    <t>Energy Technology Perspectives 2017</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/etp2017/</t>
+  </si>
+  <si>
+    <t>Access Data tab: ETP 2017 scenario summary (United States tab)</t>
+  </si>
+  <si>
+    <t>We use the Reference Technology Scenario as our BAU case, as it represents no policies beyond those in place today.</t>
+  </si>
+  <si>
+    <t>We use the Beyond 2 Degrees Scenario as the additional potential. We linearly interpolate for years we don't know explicitly.</t>
+  </si>
+  <si>
+    <t>However, these scenarios don't give CCS amounts before 2025. We estimate pre-2025 values from a MIT database of CCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facilities. </t>
+  </si>
+  <si>
+    <t>Current CCS Amount</t>
+  </si>
+  <si>
+    <t>Additional Potential CO2 Stored (metric tons CO2e per year)</t>
+  </si>
+  <si>
+    <t>BAU CO2 Stored (metric tons CO2e this year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,14 +205,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -294,8 +267,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -305,6 +276,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -372,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,32 +593,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="103.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>26</v>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,52 +630,52 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>28</v>
+      <c r="B11" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,61 +685,40 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
@@ -785,216 +741,141 @@
       <c r="C35" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="11">
-        <v>2015</v>
-      </c>
-      <c r="F1" s="11">
-        <v>2020</v>
-      </c>
-      <c r="G1" s="11">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11">
         <v>2025</v>
       </c>
-      <c r="H1" s="13">
+      <c r="E1" s="13">
         <v>2030</v>
       </c>
-      <c r="I1" s="13">
+      <c r="F1" s="13">
         <v>2035</v>
       </c>
-      <c r="J1" s="13">
+      <c r="G1" s="13">
         <v>2040</v>
       </c>
-      <c r="K1" s="11">
+      <c r="H1" s="11">
         <v>2045</v>
       </c>
-      <c r="L1" s="11">
+      <c r="I1" s="11">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="14">
+        <v>16.582290337592905</v>
       </c>
       <c r="E2" s="14">
-        <v>0</v>
+        <v>23.814401470978432</v>
       </c>
       <c r="F2" s="14">
-        <v>0.01</v>
+        <v>54.771458505375684</v>
       </c>
       <c r="G2" s="14">
-        <v>0.06</v>
+        <v>84.398598642794894</v>
       </c>
       <c r="H2" s="14">
-        <v>0.16</v>
+        <v>114.97043616285887</v>
       </c>
       <c r="I2" s="14">
-        <v>0.37</v>
-      </c>
-      <c r="J2" s="14">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0.72</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
+        <v>137.31647282194587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="14">
+        <v>74.522465374238834</v>
       </c>
       <c r="E3" s="14">
-        <v>0</v>
+        <v>209.0508936872576</v>
       </c>
       <c r="F3" s="14">
-        <v>0</v>
+        <v>402.9229168665147</v>
       </c>
       <c r="G3" s="14">
-        <v>0.01</v>
+        <v>713.68496475914014</v>
       </c>
       <c r="H3" s="14">
-        <v>0.03</v>
+        <v>1034.8748748212665</v>
       </c>
       <c r="I3" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="16">
-        <f>E3+E2</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <f t="shared" ref="F4:L4" si="0">F3+F2</f>
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.19</v>
-      </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.41</v>
-      </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.62</v>
-      </c>
-      <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.77</v>
-      </c>
-      <c r="L4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+        <v>1143.6279327949492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1011,117 +892,117 @@
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>42</v>
+      <c r="A1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1.5</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>43</v>
+      <c r="C2" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>44</v>
+      <c r="C3" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0.33</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>45</v>
+      <c r="C4" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0.36499999999999999</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>46</v>
+      <c r="C5" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0.2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>46</v>
+      <c r="C6" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>46</v>
+      <c r="C7" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>0.125</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>48</v>
+      <c r="C8" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>46</v>
+      <c r="C9" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>48</v>
+      <c r="C10" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1134,277 +1015,274 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="O1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="P1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="Q1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="R1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="S1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="T1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="U1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="V1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="W1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="X1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="Y1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="Z1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="AA1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AB1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AC1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AD1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AE1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AF1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AG1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AH1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AI1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AJ1">
-        <v>2049</v>
-      </c>
-      <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>SUM('MIT Data'!B2:B10)*10^6</f>
+        <v>5770000</v>
       </c>
       <c r="C2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>($K$2-$B$2)/COUNT($C$1:$J$1)+B2</f>
+        <v>7121536.2921991134</v>
       </c>
       <c r="D2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" ref="D2:J2" si="0">($K$2-$B$2)/COUNT($C$1:$J$1)+C2</f>
+        <v>8473072.5843982268</v>
       </c>
       <c r="E2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="0"/>
+        <v>9824608.8765973393</v>
       </c>
       <c r="F2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="0"/>
+        <v>11176145.168796452</v>
       </c>
       <c r="G2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="0"/>
+        <v>12527681.460995564</v>
       </c>
       <c r="H2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="0"/>
+        <v>13879217.753194677</v>
       </c>
       <c r="I2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="0"/>
+        <v>15230754.045393789</v>
       </c>
       <c r="J2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="0"/>
+        <v>16582290.337592902</v>
       </c>
       <c r="K2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>'ETP data'!D2*10^6</f>
+        <v>16582290.337592905</v>
       </c>
       <c r="L2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>(($P$2-$K$2)/COUNT($L$1:$P$1))+K2</f>
+        <v>18028712.564270012</v>
       </c>
       <c r="M2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" ref="M2:O2" si="1">(($P$2-$K$2)/COUNT($L$1:$P$1))+L2</f>
+        <v>19475134.790947117</v>
       </c>
       <c r="N2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="1"/>
+        <v>20921557.017624222</v>
       </c>
       <c r="O2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="1"/>
+        <v>22367979.244301327</v>
       </c>
       <c r="P2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>'ETP data'!E2*10^6</f>
+        <v>23814401.470978431</v>
       </c>
       <c r="Q2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>(($U$2-$P$2)/COUNT($Q$1:$U$1))+P2</f>
+        <v>30005812.877857883</v>
       </c>
       <c r="R2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" ref="R2:T2" si="2">(($U$2-$P$2)/COUNT($Q$1:$U$1))+Q2</f>
+        <v>36197224.284737334</v>
       </c>
       <c r="S2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="2"/>
+        <v>42388635.691616781</v>
       </c>
       <c r="T2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="2"/>
+        <v>48580047.098496228</v>
       </c>
       <c r="U2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>'ETP data'!F2*10^6</f>
+        <v>54771458.505375683</v>
       </c>
       <c r="V2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>(($Z$2-$U$2)/COUNT($V$1:$Z$1))+U2</f>
+        <v>60696886.532859527</v>
       </c>
       <c r="W2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" ref="W2:Y2" si="3">(($Z$2-$U$2)/COUNT($V$1:$Z$1))+V2</f>
+        <v>66622314.56034337</v>
       </c>
       <c r="X2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="3"/>
+        <v>72547742.587827206</v>
       </c>
       <c r="Y2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="3"/>
+        <v>78473170.615311041</v>
       </c>
       <c r="Z2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>'ETP data'!G2*10^6</f>
+        <v>84398598.642794892</v>
       </c>
       <c r="AA2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>(($AE$2-$Z$2)/COUNT($AA$1:$AE$1))+Z2</f>
+        <v>90512966.146807685</v>
       </c>
       <c r="AB2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" ref="AB2:AD2" si="4">(($AE$2-$Z$2)/COUNT($AA$1:$AE$1))+AA2</f>
+        <v>96627333.650820479</v>
       </c>
       <c r="AC2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="4"/>
+        <v>102741701.15483327</v>
       </c>
       <c r="AD2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="4"/>
+        <v>108856068.65884607</v>
       </c>
       <c r="AE2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>'ETP data'!H2*10^6</f>
+        <v>114970436.16285887</v>
       </c>
       <c r="AF2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>(($AJ$2-$AE$2)/COUNT($AF$1:$AJ$1))+AE2</f>
+        <v>119439643.49467628</v>
       </c>
       <c r="AG2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" ref="AG2:AI2" si="5">(($AJ$2-$AE$2)/COUNT($AF$1:$AJ$1))+AF2</f>
+        <v>123908850.82649368</v>
       </c>
       <c r="AH2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="5"/>
+        <v>128378058.15831108</v>
       </c>
       <c r="AI2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f t="shared" si="5"/>
+        <v>132847265.49012849</v>
       </c>
       <c r="AJ2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
-      </c>
-      <c r="AK2" s="8">
-        <f>SUM('MIT Data'!$B$3,'MIT Data'!$B$5:$B$7,'MIT Data'!$B$9)*10^6</f>
-        <v>2815000</v>
+        <f>'ETP data'!I2*10^6</f>
+        <v>137316472.82194588</v>
       </c>
     </row>
   </sheetData>
@@ -1417,276 +1295,274 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="17" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="O1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="P1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="Q1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="R1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="S1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="T1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="U1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="V1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="W1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="X1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="Y1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="Z1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="AA1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AB1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AC1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AD1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AE1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AF1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AG1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AH1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AI1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AJ1">
-        <v>2049</v>
-      </c>
-      <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="8">
-        <f>'ETP data'!E4*10^9</f>
-        <v>0</v>
+        <f>'CSA-BTCS'!B2</f>
+        <v>5770000</v>
       </c>
       <c r="C2" s="8">
-        <f>($G$2-$B$2)/COUNT($C$1:$G$1)+B2</f>
-        <v>2000000</v>
+        <f>'CSA-BTCS'!C2</f>
+        <v>7121536.2921991134</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:F2" si="0">($G$2-$B$2)/COUNT($C$1:$G$1)+C2</f>
-        <v>4000000</v>
+        <f>'CSA-BTCS'!D2</f>
+        <v>8473072.5843982268</v>
       </c>
       <c r="E2" s="8">
+        <f>($K$2-$D$2)/COUNT($E$1:$K$1)+D2</f>
+        <v>17908700.125804029</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:J2" si="0">($K$2-$D$2)/COUNT($E$1:$K$1)+E2</f>
+        <v>27344327.66720983</v>
+      </c>
+      <c r="G2" s="8">
         <f t="shared" si="0"/>
-        <v>6000000</v>
-      </c>
-      <c r="F2" s="8">
+        <v>36779955.208615631</v>
+      </c>
+      <c r="H2" s="8">
         <f t="shared" si="0"/>
-        <v>8000000</v>
-      </c>
-      <c r="G2" s="8">
-        <f>'ETP data'!F4*10^9</f>
-        <v>10000000</v>
-      </c>
-      <c r="H2" s="8">
-        <f>($L$2-$G$2)/COUNT($H$1:$L$1)+G2</f>
-        <v>22000000</v>
+        <v>46215582.750021428</v>
       </c>
       <c r="I2" s="8">
-        <f t="shared" ref="I2:K2" si="1">($L$2-$G$2)/COUNT($H$1:$L$1)+H2</f>
-        <v>34000000</v>
+        <f t="shared" si="0"/>
+        <v>55651210.291427225</v>
       </c>
       <c r="J2" s="8">
+        <f t="shared" si="0"/>
+        <v>65086837.832833022</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'ETP data'!D3*10^6</f>
+        <v>74522465.374238834</v>
+      </c>
+      <c r="L2" s="8">
+        <f>(($P$2-$K$2)/COUNT($L$1:$P$1))+K2</f>
+        <v>101428151.03684258</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:O2" si="1">(($P$2-$K$2)/COUNT($L$1:$P$1))+L2</f>
+        <v>128333836.69944634</v>
+      </c>
+      <c r="N2" s="8">
         <f t="shared" si="1"/>
-        <v>46000000</v>
-      </c>
-      <c r="K2" s="8">
+        <v>155239522.36205009</v>
+      </c>
+      <c r="O2" s="8">
         <f t="shared" si="1"/>
-        <v>58000000</v>
-      </c>
-      <c r="L2" s="8">
-        <f>'ETP data'!G4*10^9</f>
-        <v>70000000</v>
-      </c>
-      <c r="M2" s="8">
-        <f>($Q$2-$L$2)/COUNT($M$1:$Q$1)+L2</f>
-        <v>94000000</v>
-      </c>
-      <c r="N2" s="8">
-        <f t="shared" ref="N2:R2" si="2">($Q$2-$L$2)/COUNT($M$1:$Q$1)+M2</f>
-        <v>118000000</v>
-      </c>
-      <c r="O2" s="8">
+        <v>182145208.02465382</v>
+      </c>
+      <c r="P2" s="8">
+        <f>'ETP data'!E3*10^6</f>
+        <v>209050893.68725759</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>(($U$2-$P$2)/COUNT($Q$1:$U$1))+P2</f>
+        <v>247825298.323109</v>
+      </c>
+      <c r="R2" s="8">
+        <f t="shared" ref="R2:T2" si="2">(($U$2-$P$2)/COUNT($Q$1:$U$1))+Q2</f>
+        <v>286599702.95896041</v>
+      </c>
+      <c r="S2" s="8">
         <f t="shared" si="2"/>
-        <v>142000000</v>
-      </c>
-      <c r="P2" s="8">
+        <v>325374107.59481186</v>
+      </c>
+      <c r="T2" s="8">
         <f t="shared" si="2"/>
-        <v>166000000</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>'ETP data'!H4*10^9</f>
-        <v>190000000</v>
-      </c>
-      <c r="R2" s="8">
-        <f>($V$2-$Q$2)/COUNT($R$1:$V$1)+Q2</f>
-        <v>234000000</v>
-      </c>
-      <c r="S2" s="8">
-        <f t="shared" ref="S2:U2" si="3">($V$2-$Q$2)/COUNT($R$1:$V$1)+R2</f>
-        <v>278000000</v>
-      </c>
-      <c r="T2" s="8">
+        <v>364148512.2306633</v>
+      </c>
+      <c r="U2" s="8">
+        <f>'ETP data'!F3*10^6</f>
+        <v>402922916.86651468</v>
+      </c>
+      <c r="V2" s="8">
+        <f>(($Z$2-$U$2)/COUNT($V$1:$Z$1))+U2</f>
+        <v>465075326.44503975</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" ref="W2:Y2" si="3">(($Z$2-$U$2)/COUNT($V$1:$Z$1))+V2</f>
+        <v>527227736.02356482</v>
+      </c>
+      <c r="X2" s="8">
         <f t="shared" si="3"/>
-        <v>322000000</v>
-      </c>
-      <c r="U2" s="8">
+        <v>589380145.60208988</v>
+      </c>
+      <c r="Y2" s="8">
         <f t="shared" si="3"/>
-        <v>366000000</v>
-      </c>
-      <c r="V2" s="8">
-        <f>'ETP data'!I4*10^9</f>
-        <v>410000000</v>
-      </c>
-      <c r="W2" s="8">
-        <f>($AA$2-$V$2)/COUNT($W$1:$AA$1)+V2</f>
-        <v>452000000</v>
-      </c>
-      <c r="X2" s="8">
-        <f t="shared" ref="X2:Z2" si="4">($AA$2-$V$2)/COUNT($W$1:$AA$1)+W2</f>
-        <v>494000000</v>
-      </c>
-      <c r="Y2" s="8">
+        <v>651532555.18061495</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>'ETP data'!G3*10^6</f>
+        <v>713684964.75914013</v>
+      </c>
+      <c r="AA2" s="8">
+        <f>(($AE$2-$Z$2)/COUNT($AA$1:$AE$1))+Z2</f>
+        <v>777922946.77156544</v>
+      </c>
+      <c r="AB2" s="8">
+        <f t="shared" ref="AB2:AD2" si="4">(($AE$2-$Z$2)/COUNT($AA$1:$AE$1))+AA2</f>
+        <v>842160928.78399074</v>
+      </c>
+      <c r="AC2" s="8">
         <f t="shared" si="4"/>
-        <v>536000000</v>
-      </c>
-      <c r="Z2" s="8">
+        <v>906398910.79641604</v>
+      </c>
+      <c r="AD2" s="8">
         <f t="shared" si="4"/>
-        <v>578000000</v>
-      </c>
-      <c r="AA2" s="8">
-        <f>'ETP data'!J4*10^9</f>
-        <v>620000000</v>
-      </c>
-      <c r="AB2" s="8">
-        <f>($AF$2-$AA$2)/COUNT($AB$1:$AF$1)+AA2</f>
-        <v>650000000</v>
-      </c>
-      <c r="AC2" s="8">
-        <f t="shared" ref="AC2:AE2" si="5">($AF$2-$AA$2)/COUNT($AB$1:$AF$1)+AB2</f>
-        <v>680000000</v>
-      </c>
-      <c r="AD2" s="8">
+        <v>970636892.80884135</v>
+      </c>
+      <c r="AE2" s="8">
+        <f>'ETP data'!H3*10^6</f>
+        <v>1034874874.8212665</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>(($AJ$2-$AE$2)/COUNT($AF$1:$AJ$1))+AE2</f>
+        <v>1056625486.4160031</v>
+      </c>
+      <c r="AG2" s="8">
+        <f t="shared" ref="AG2:AI2" si="5">(($AJ$2-$AE$2)/COUNT($AF$1:$AJ$1))+AF2</f>
+        <v>1078376098.0107396</v>
+      </c>
+      <c r="AH2" s="8">
         <f t="shared" si="5"/>
-        <v>710000000</v>
-      </c>
-      <c r="AE2" s="8">
+        <v>1100126709.6054761</v>
+      </c>
+      <c r="AI2" s="8">
         <f t="shared" si="5"/>
-        <v>740000000</v>
-      </c>
-      <c r="AF2" s="8">
-        <f>'ETP data'!K4*10^9</f>
-        <v>770000000</v>
-      </c>
-      <c r="AG2" s="8">
-        <f>($AK$2-$AF$2)/COUNT($AG$1:$AK$1)+AF2</f>
-        <v>786000000</v>
-      </c>
-      <c r="AH2" s="8">
-        <f t="shared" ref="AH2:AJ2" si="6">($AK$2-$AF$2)/COUNT($AG$1:$AK$1)+AG2</f>
-        <v>802000000</v>
-      </c>
-      <c r="AI2" s="8">
-        <f t="shared" si="6"/>
-        <v>818000000</v>
+        <v>1121877321.2002127</v>
       </c>
       <c r="AJ2" s="8">
-        <f t="shared" si="6"/>
-        <v>834000000</v>
-      </c>
-      <c r="AK2" s="8">
-        <f>'ETP data'!L4*10^9</f>
-        <v>850000000</v>
+        <f>'ETP data'!I3*10^6</f>
+        <v>1143627932.7949493</v>
       </c>
     </row>
   </sheetData>
